--- a/SCRUM/CST-247-SprintBurnDown1.xlsx
+++ b/SCRUM/CST-247-SprintBurnDown1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\_school\EAP\SCRUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\_repositories\Charp\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,21 +2370,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2613,57 +2651,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2676,22 +2676,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2710,19 +2711,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
